--- a/assets/site.xlsx
+++ b/assets/site.xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28706"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28712"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hyunsu.kim\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{F2B4D145-F16F-4BC8-B731-0057B9DF5754}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D7BBB0C5-0578-47C4-9FE0-BB9A982D0799}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5579BC74-DA3C-4FAC-8CA7-CBB03941B0C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="1" xr2:uid="{5F4913DE-BB22-48F4-A57F-13BA89179192}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="2" xr2:uid="{5F4913DE-BB22-48F4-A57F-13BA89179192}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Magnet" sheetId="2" r:id="rId2"/>
-    <sheet name="Console" sheetId="3" r:id="rId3"/>
-    <sheet name="Auto" sheetId="4" r:id="rId4"/>
-    <sheet name="CPP&amp;CRP" sheetId="5" r:id="rId5"/>
-    <sheet name="ETC" sheetId="6" r:id="rId6"/>
+    <sheet name="Magnet" sheetId="2" r:id="rId1"/>
+    <sheet name="Console" sheetId="3" r:id="rId2"/>
+    <sheet name="Acc" sheetId="4" r:id="rId3"/>
+    <sheet name="CPPandCRP" sheetId="5" r:id="rId4"/>
+    <sheet name="ETC" sheetId="6" r:id="rId5"/>
+    <sheet name="HeTrans" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -41,68 +41,59 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="122">
-  <si>
-    <t>400 CORE</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="119">
+  <si>
+    <t>magnet</t>
   </si>
   <si>
     <t>자석패키지</t>
   </si>
   <si>
+    <t>스탠드패키지</t>
+  </si>
+  <si>
+    <t>자석 중량</t>
+  </si>
+  <si>
+    <t>스탠드 중량</t>
+  </si>
+  <si>
+    <t>전체 중량</t>
+  </si>
+  <si>
     <t>자석사이즈</t>
   </si>
   <si>
-    <t>스탠드패키지</t>
-  </si>
-  <si>
-    <t>최소 천장 높이+800</t>
-  </si>
-  <si>
-    <t>최소 문 폭(magnet+50)</t>
-  </si>
-  <si>
-    <t>자석 중량</t>
-  </si>
-  <si>
-    <t>전체 중량</t>
-  </si>
-  <si>
-    <t>스탠드 중량</t>
+    <t>최소 천장 높이+80</t>
+  </si>
+  <si>
+    <t>최소 문 폭(magnet+5)</t>
   </si>
   <si>
     <t>설치질소</t>
   </si>
   <si>
+    <t>설치헬륨</t>
+  </si>
+  <si>
     <t>질소볼륨</t>
   </si>
   <si>
-    <t>설치헬륨</t>
-  </si>
-  <si>
     <t>헬륨볼륨</t>
   </si>
   <si>
     <t>질소리필주기</t>
   </si>
   <si>
+    <t>헬륨리필주기</t>
+  </si>
+  <si>
     <t>질소소모량</t>
   </si>
   <si>
-    <t>헬륨리필주기</t>
-  </si>
-  <si>
     <t>헬륨소모량</t>
   </si>
   <si>
-    <t>magnet</t>
-  </si>
-  <si>
-    <t>최소 천장 높이+80</t>
-  </si>
-  <si>
-    <t>최소 문 폭(magnet+5)</t>
-  </si>
-  <si>
     <t>400core</t>
   </si>
   <si>
@@ -178,7 +169,7 @@
     <t>17ml/h</t>
   </si>
   <si>
-    <t>콘솔</t>
+    <t>Console</t>
   </si>
   <si>
     <t>장비 사이즈</t>
@@ -193,7 +184,7 @@
     <t>필요가스</t>
   </si>
   <si>
-    <t>OneBay</t>
+    <t>Onebay</t>
   </si>
   <si>
     <t>690*830*1300</t>
@@ -205,7 +196,7 @@
     <t>60Nl/min</t>
   </si>
   <si>
-    <t>TwoBay</t>
+    <t>Twobay</t>
   </si>
   <si>
     <t>1310*830*130</t>
@@ -337,6 +328,24 @@
     <t>20도 미만</t>
   </si>
   <si>
+    <t>MAS</t>
+  </si>
+  <si>
+    <t>250Nl/min</t>
+  </si>
+  <si>
+    <t>BCU1</t>
+  </si>
+  <si>
+    <t>480*350*430</t>
+  </si>
+  <si>
+    <t>BCU2</t>
+  </si>
+  <si>
+    <t>580*420*570</t>
+  </si>
+  <si>
     <t>Helium Gas Transfer Lines</t>
   </si>
   <si>
@@ -389,45 +398,19 @@
   </si>
   <si>
     <t>• 30 m indoor line / 10 m outdoor line</t>
-  </si>
-  <si>
-    <t>MAS</t>
-  </si>
-  <si>
-    <t>250Nl/min</t>
-  </si>
-  <si>
-    <t>BCU1</t>
-  </si>
-  <si>
-    <t>480*350*430</t>
-  </si>
-  <si>
-    <t>BCU2</t>
-  </si>
-  <si>
-    <t>580*420*570</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="24"/>
-      <color theme="4" tint="-0.249977111117893"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -458,12 +441,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -799,199 +779,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14F46BF7-595B-42DE-B8D2-CDAF35B4DEFE}">
-  <dimension ref="B4:R23"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
-  <cols>
-    <col min="1" max="1" width="3.5" customWidth="1"/>
-    <col min="2" max="2" width="23.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="1" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12" style="1" customWidth="1"/>
-    <col min="6" max="6" width="24.75" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.625" style="1" customWidth="1"/>
-    <col min="8" max="9" width="9" style="1"/>
-    <col min="10" max="10" width="19.375" style="1" customWidth="1"/>
-    <col min="11" max="13" width="9" style="1"/>
-    <col min="14" max="14" width="9.375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="14.875" style="1" customWidth="1"/>
-    <col min="16" max="16" width="14.625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="11.875" style="1" customWidth="1"/>
-    <col min="18" max="18" width="15.25" style="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="4" spans="2:6" ht="31.15">
-      <c r="B4" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-    </row>
-    <row r="7" spans="2:6">
-      <c r="B7" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="1" t="e">
-        <f>VLOOKUP(B4,Magnet!A2:Q6,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F7" s="1" t="e">
-        <f>VLOOKUP(B4,Magnet!A2:Q6,7,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6">
-      <c r="B8" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="1" t="e">
-        <f>VLOOKUP(B4,Magnet!A2:Q6,3,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6">
-      <c r="B10" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" s="1" t="e">
-        <f>VLOOKUP(B4,Magnet!A2:Q6,8,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6">
-      <c r="B11" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="1" t="e">
-        <f>VLOOKUP(B4,Magnet!A2:Q6,9,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6">
-      <c r="B14" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" s="1" t="e">
-        <f>VLOOKUP(B4,Magnet!A2:Q6,4,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F14" s="1" t="e">
-        <f>VLOOKUP(B4,Magnet!A2:Q6,6,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6">
-      <c r="B15" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" s="1" t="e">
-        <f>VLOOKUP(B4,Magnet!A2:Q6,5,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6">
-      <c r="B19" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C19" s="1" t="e">
-        <f>VLOOKUP(B4,Magnet!A2:Q6,10,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F19" s="1" t="e">
-        <f>VLOOKUP(B4,Magnet!A2:Q6,12,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6">
-      <c r="B20" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C20" s="1" t="e">
-        <f>VLOOKUP(B4,Magnet!A2:Q6,11,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F20" s="1" t="e">
-        <f>VLOOKUP(B4,Magnet!A2:Q6,13,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6">
-      <c r="B22" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C22" s="1" t="e">
-        <f>VLOOKUP(B4,Magnet!A2:Q6,14,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F22" s="1" t="e">
-        <f>VLOOKUP(B4,Magnet!A2:Q6,16,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6">
-      <c r="B23" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C23" s="1" t="e">
-        <f>VLOOKUP(B4,Magnet!A2:Q6,15,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F23" s="1" t="e">
-        <f>VLOOKUP(B4,Magnet!A2:Q6,17,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B4:F4"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{456148E1-7CA7-4EC7-A47C-DB729B53407A}">
-          <x14:formula1>
-            <xm:f>Magnet!$A$2:$A$15</xm:f>
-          </x14:formula1>
-          <xm:sqref>B4</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{135623D0-2CDC-4435-968B-9CB0EB689AB8}">
   <dimension ref="A1:Q38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45"/>
@@ -1013,40 +805,40 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="1" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>12</v>
@@ -1055,10 +847,10 @@
         <v>13</v>
       </c>
       <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>16</v>
@@ -1066,13 +858,13 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D2" s="1">
         <v>508</v>
@@ -1084,10 +876,10 @@
         <v>590</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I2" s="1">
         <v>90</v>
@@ -1105,27 +897,27 @@
         <v>150</v>
       </c>
       <c r="N2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q2" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D3" s="1">
         <v>508</v>
@@ -1137,10 +929,10 @@
         <v>590</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I3" s="1">
         <v>90</v>
@@ -1158,27 +950,27 @@
         <v>150</v>
       </c>
       <c r="N3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q3" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D4" s="1">
         <v>588</v>
@@ -1190,10 +982,10 @@
         <v>660</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I4" s="1">
         <v>90</v>
@@ -1211,27 +1003,27 @@
         <v>134</v>
       </c>
       <c r="N4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q4" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q4" s="1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D5" s="1">
         <v>612</v>
@@ -1243,10 +1035,10 @@
         <v>700</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="I5" s="1">
         <v>90</v>
@@ -1264,27 +1056,27 @@
         <v>129</v>
       </c>
       <c r="N5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q5" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="P5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q5" s="1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D6" s="1">
         <v>882</v>
@@ -1296,10 +1088,10 @@
         <v>950</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="I6" s="1">
         <v>90</v>
@@ -1317,16 +1109,16 @@
         <v>138</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1663,90 +1455,191 @@
       <c r="L38" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD463397-AA9D-40C0-8550-2B3B27B6F399}">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.45"/>
+  <cols>
+    <col min="2" max="2" width="13.375" customWidth="1"/>
+    <col min="3" max="3" width="10.25" customWidth="1"/>
+    <col min="4" max="4" width="11" customWidth="1"/>
+    <col min="5" max="5" width="10.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2">
+        <v>230</v>
+      </c>
+      <c r="D2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3">
+        <v>340</v>
+      </c>
+      <c r="E3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4">
+        <v>130</v>
+      </c>
+      <c r="D4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD463397-AA9D-40C0-8550-2B3B27B6F399}">
-  <dimension ref="B4:F7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C00E1B4-3C0E-4F55-912A-5694C91E9C90}">
+  <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="3" max="3" width="13.375" customWidth="1"/>
-    <col min="4" max="4" width="10.25" customWidth="1"/>
-    <col min="5" max="5" width="11" customWidth="1"/>
-    <col min="6" max="6" width="10.25" customWidth="1"/>
+    <col min="1" max="1" width="26.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:6">
-      <c r="B4" t="s">
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" t="s">
         <v>45</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E1" t="s">
         <v>46</v>
       </c>
-      <c r="D4" t="s">
-        <v>47</v>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>48</v>
-      </c>
-      <c r="F4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6">
-      <c r="B5" t="s">
-        <v>50</v>
-      </c>
-      <c r="C5" t="s">
-        <v>51</v>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>230</v>
+        <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>52</v>
-      </c>
-      <c r="F5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6">
-      <c r="B6" t="s">
-        <v>54</v>
-      </c>
-      <c r="C6" t="s">
-        <v>55</v>
-      </c>
-      <c r="D6">
-        <v>340</v>
-      </c>
-      <c r="F6" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6">
-      <c r="B7" t="s">
-        <v>56</v>
-      </c>
-      <c r="C7" t="s">
         <v>57</v>
-      </c>
-      <c r="D7">
-        <v>130</v>
-      </c>
-      <c r="E7" t="s">
-        <v>52</v>
-      </c>
-      <c r="F7" t="s">
-        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -1755,67 +1648,167 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C00E1B4-3C0E-4F55-912A-5694C91E9C90}">
-  <dimension ref="B2:G7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A03F88B-7726-416A-9279-4322F43A0485}">
+  <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="2" max="2" width="26.375" customWidth="1"/>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.625" customWidth="1"/>
+    <col min="4" max="5" width="10.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7">
+    <row r="1" spans="1:12">
+      <c r="B1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K1" t="s">
+        <v>67</v>
+      </c>
+      <c r="L1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" t="s">
+        <v>69</v>
+      </c>
       <c r="B2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="3" spans="2:7">
-      <c r="D3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2">
+        <v>68</v>
+      </c>
+      <c r="D2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F3" t="s">
+        <v>74</v>
+      </c>
+      <c r="I3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C4">
+        <v>250</v>
+      </c>
+      <c r="D4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F4" t="s">
+        <v>74</v>
+      </c>
+      <c r="I4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C5">
+        <v>142</v>
+      </c>
+      <c r="D5" t="s">
+        <v>82</v>
+      </c>
+      <c r="E5" t="s">
+        <v>83</v>
+      </c>
+      <c r="F5">
+        <v>460</v>
+      </c>
+      <c r="H5" t="s">
+        <v>84</v>
+      </c>
+      <c r="J5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C6">
         <v>46</v>
       </c>
-      <c r="E3" t="s">
-        <v>47</v>
-      </c>
-      <c r="F3" t="s">
-        <v>48</v>
-      </c>
-      <c r="G3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7">
-      <c r="B4" t="s">
-        <v>59</v>
-      </c>
-      <c r="G4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7">
-      <c r="B5" t="s">
-        <v>61</v>
-      </c>
-      <c r="G5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7">
-      <c r="B6" t="s">
-        <v>62</v>
-      </c>
       <c r="G6" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" t="s">
+        <v>89</v>
+      </c>
       <c r="B7" t="s">
-        <v>63</v>
+        <v>90</v>
+      </c>
+      <c r="D7" t="s">
+        <v>91</v>
+      </c>
+      <c r="E7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F7">
+        <v>460</v>
       </c>
       <c r="G7" t="s">
-        <v>60</v>
+        <v>92</v>
+      </c>
+      <c r="K7" t="s">
+        <v>93</v>
+      </c>
+      <c r="L7" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -1824,252 +1817,60 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A03F88B-7726-416A-9279-4322F43A0485}">
-  <dimension ref="B2:M33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C375086-2AFF-4C5A-8407-115699131257}">
+  <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="3" max="3" width="14.625" customWidth="1"/>
-    <col min="5" max="6" width="10.875" customWidth="1"/>
+    <col min="2" max="2" width="12.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13">
-      <c r="C2" t="s">
+    <row r="1" spans="1:5">
+      <c r="B1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" t="s">
         <v>46</v>
       </c>
-      <c r="D2" t="s">
-        <v>47</v>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>95</v>
       </c>
       <c r="E2" t="s">
-        <v>64</v>
-      </c>
-      <c r="F2" t="s">
-        <v>65</v>
-      </c>
-      <c r="G2" t="s">
-        <v>48</v>
-      </c>
-      <c r="H2" t="s">
-        <v>66</v>
-      </c>
-      <c r="I2" t="s">
-        <v>67</v>
-      </c>
-      <c r="J2" t="s">
-        <v>68</v>
-      </c>
-      <c r="K2" t="s">
-        <v>69</v>
-      </c>
-      <c r="L2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C4">
         <v>70</v>
-      </c>
-      <c r="M2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="3" spans="2:13">
-      <c r="B3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C3" t="s">
-        <v>73</v>
-      </c>
-      <c r="D3">
-        <v>68</v>
-      </c>
-      <c r="E3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="4" spans="2:13">
-      <c r="B4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C4" t="s">
-        <v>76</v>
-      </c>
-      <c r="G4" t="s">
-        <v>77</v>
-      </c>
-      <c r="J4" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="6" spans="2:13">
-      <c r="B6" t="s">
-        <v>79</v>
-      </c>
-      <c r="C6" t="s">
-        <v>80</v>
-      </c>
-      <c r="D6">
-        <v>250</v>
-      </c>
-      <c r="E6" t="s">
-        <v>81</v>
-      </c>
-      <c r="G6" t="s">
-        <v>77</v>
-      </c>
-      <c r="J6" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="7" spans="2:13">
-      <c r="B7" t="s">
-        <v>83</v>
-      </c>
-      <c r="C7" t="s">
-        <v>84</v>
-      </c>
-      <c r="D7">
-        <v>142</v>
-      </c>
-      <c r="E7" t="s">
-        <v>85</v>
-      </c>
-      <c r="F7" t="s">
-        <v>86</v>
-      </c>
-      <c r="G7">
-        <v>460</v>
-      </c>
-      <c r="I7" t="s">
-        <v>87</v>
-      </c>
-      <c r="K7" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="8" spans="2:13">
-      <c r="B8" t="s">
-        <v>89</v>
-      </c>
-      <c r="C8" t="s">
-        <v>90</v>
-      </c>
-      <c r="D8">
-        <v>46</v>
-      </c>
-      <c r="H8" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="9" spans="2:13">
-      <c r="B9" t="s">
-        <v>92</v>
-      </c>
-      <c r="C9" t="s">
-        <v>93</v>
-      </c>
-      <c r="E9" t="s">
-        <v>94</v>
-      </c>
-      <c r="F9" t="s">
-        <v>86</v>
-      </c>
-      <c r="G9">
-        <v>460</v>
-      </c>
-      <c r="H9" t="s">
-        <v>95</v>
-      </c>
-      <c r="L9" t="s">
-        <v>96</v>
-      </c>
-      <c r="M9" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6">
-      <c r="B17" t="s">
-        <v>98</v>
-      </c>
-      <c r="F17" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6">
-      <c r="B18" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6">
-      <c r="B19" t="s">
-        <v>101</v>
-      </c>
-      <c r="F19" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6">
-      <c r="B21" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6">
-      <c r="B22" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6">
-      <c r="B23" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6">
-      <c r="B24" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6">
-      <c r="B25" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6">
-      <c r="B26" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="27" spans="2:6">
-      <c r="B27" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="28" spans="2:6">
-      <c r="B28" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="29" spans="2:6">
-      <c r="B29" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="30" spans="2:6">
-      <c r="B30" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="31" spans="2:6">
-      <c r="B31" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="32" spans="2:6">
-      <c r="B32" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="33" spans="2:2">
-      <c r="B33" t="s">
-        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -2078,60 +1879,102 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C375086-2AFF-4C5A-8407-115699131257}">
-  <dimension ref="B2:F5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E6BF4B4-5B6C-4822-B2AC-2C315992B835}">
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="3" max="3" width="12.875" customWidth="1"/>
+    <col min="1" max="1" width="20.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6">
-      <c r="C2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="3" spans="2:6">
-      <c r="B3" t="s">
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
         <v>116</v>
       </c>
-      <c r="F3" t="s">
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="4" spans="2:6">
-      <c r="B4" t="s">
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
         <v>118</v>
-      </c>
-      <c r="C4" t="s">
-        <v>119</v>
-      </c>
-      <c r="D4">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6">
-      <c r="B5" t="s">
-        <v>120</v>
-      </c>
-      <c r="C5" t="s">
-        <v>121</v>
-      </c>
-      <c r="D5">
-        <v>70</v>
       </c>
     </row>
   </sheetData>
